--- a/7 - Probability distribution/7.1 tasks.xlsx
+++ b/7 - Probability distribution/7.1 tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davut\University\Master ITMO\1 semester\Data pre-processing and statistical elements\7 - Probability distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B16BEF-3A9F-44A5-8BE5-90AB7A9CDAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E20BE-2EEE-490C-808D-45B65AD9D729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-105" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{FDCD25AA-8CDA-42E9-A025-197A10051514}"/>
+    <workbookView xWindow="7320" yWindow="-75" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{FDCD25AA-8CDA-42E9-A025-197A10051514}"/>
   </bookViews>
   <sheets>
     <sheet name="ex 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>n</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>P(n&gt;=3)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Дисп.Г</t>
+  </si>
+  <si>
+    <t>СтОткл.Г</t>
   </si>
 </sst>
 </file>
@@ -105,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -704,7 +714,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,10 +834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F31025F-ACC5-4BA7-B1CA-BB6F3E446E7F}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,6 +1035,33 @@
       <c r="B9" s="1">
         <f>1/COUNT($B$4:$K$4)*SUMSQ($B$8:$K$8)</f>
         <v>8.0900000000000016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>SQRT(B9)</f>
+        <v>2.8442925306655789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <f>_xlfn.VAR.P(B4:K4)</f>
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <f>_xlfn.STDEV.P(B4:K4)</f>
+        <v>2.8442925306655784</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5399F39-F6E4-46D6-98C2-A058B69C9058}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
